--- a/biology/Microbiologie/Clostridium/Clostridium.xlsx
+++ b/biology/Microbiologie/Clostridium/Clostridium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clostridium est un genre bactérien regroupant des bacilles gram positifs strictement anaérobies et sporulés, assurant généralement leur mobilité par des flagelles péritriches. Il inclut des pathogènes humains comme ceux causant le botulisme ou le tétanos.
-On a longtemps inclus dans ce genre la bactérie Clostridium difficile aujourd'hui renommée Clostridioides difficile après analyse de son ARN ribosomique 16S[1].
-Les cellules reproductives, dites forme végétative, ont la forme d'un bacille d'où leur nom, du grec κλωστήρ 'fuseau'. Leurs endospores ont une forme de quille ou de bouteille, ce qui les distingue des autres endospores bactériennes, généralement de forme ovoïde. Les différentes espèces de Clostridium vivent dans les sols ou le tube digestif des animaux, humains inclus[2]. Elles contribuent aussi à la flore vaginale normale[3].
+On a longtemps inclus dans ce genre la bactérie Clostridium difficile aujourd'hui renommée Clostridioides difficile après analyse de son ARN ribosomique 16S.
+Les cellules reproductives, dites forme végétative, ont la forme d'un bacille d'où leur nom, du grec κλωστήρ 'fuseau'. Leurs endospores ont une forme de quille ou de bouteille, ce qui les distingue des autres endospores bactériennes, généralement de forme ovoïde. Les différentes espèces de Clostridium vivent dans les sols ou le tube digestif des animaux, humains inclus. Elles contribuent aussi à la flore vaginale normale.
 Phylogénie : Clostridium appartient à la famille des Clostridiaceae, Ordre des Clostridiales, Classe des Clostridia, Phyllum des Firmicutes.
 </t>
         </is>
@@ -516,13 +528,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étude macroscopique
-Grandes colonies (sauf C. difficile qui forme de petites colonies)
+          <t>Étude macroscopique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Grandes colonies (sauf C. difficile qui forme de petites colonies)
 Odeur très intense
-Caractère hémolytique : double hémolyse β (sauf C. difficile qui est non-hémolytique)
-Étude microscopique
-Sur la base de l'observation microscopique
-Mobilité : souvent 
+Caractère hémolytique : double hémolyse β (sauf C. difficile qui est non-hémolytique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Clostridium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clostridium</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biotypie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étude microscopique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Sur la base de l'observation microscopique</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mobilité : souvent 
 mode de groupement : (bacille isolé) à vérifier et compléter
 Genre sporulant (spores sub-terminaux à terminaux déformants visibles par coloration négative ou par coloration positive : vert malachite 5 %)
 Test d'orientation
@@ -543,31 +597,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Clostridium</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Clostridium</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Clostridium comporte de nombreuses espèces dont certaines hautement pathogènes pour l'homme.
 Les plus « célèbres » espèces :
@@ -805,31 +861,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Clostridium</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Clostridium</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Quelques espèces sont toxigènes et peuvent causer des maladies non contagieuses résultant de l'introduction accidentelle dans l'organisme du germe et de sa toxine. Les 4 maladies principales en sont le botulisme, le tétanos, la gangrène gazeuse et l'entérotoxémie.
 Les acides gras sont convertis par des levures en polymères à longue chaîne de type acide dicarboxylique puis en 1,3-propanediol via l'utilisation de la bactérie Clostridium diolis.[réf. nécessaire]
@@ -837,37 +895,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Clostridium</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Clostridium</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Usage thérapeutique de la bactérie contre le cancer</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clostridium, S. Typhimurium et Listeria produisent des exotoxines (comme la phospholipase, l'hémolysine, la lipase) qui endommagent la structure membranaire et les fonctions cellulaires de la tumeur, en induisant l'apoptose ou l'autophagie ce qui programme la mort de la cellule[4].
-Les infections à Salmonella, Clostridium et Listeria favorisent l'élimination des tumeurs en augmentant les cytokines et les chimiokines (protéines régulatrices de la signalisation cellulaire) qui régulent les sites infectés à l'aide de granulocytes et de lymphocytes cytotoxiques (GB qui tuent les cellules cancéreuses)[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clostridium, S. Typhimurium et Listeria produisent des exotoxines (comme la phospholipase, l'hémolysine, la lipase) qui endommagent la structure membranaire et les fonctions cellulaires de la tumeur, en induisant l'apoptose ou l'autophagie ce qui programme la mort de la cellule.
+Les infections à Salmonella, Clostridium et Listeria favorisent l'élimination des tumeurs en augmentant les cytokines et les chimiokines (protéines régulatrices de la signalisation cellulaire) qui régulent les sites infectés à l'aide de granulocytes et de lymphocytes cytotoxiques (GB qui tuent les cellules cancéreuses).
 Les infections à Clostridium et à S. Typhimurium peuvent toutes deux stimuler une accumulation importante de neutrophiles. Une sécrétion élevée de TNF-α et de ligand induisant l'apoptose liée au TNF (TRAIL) par les neutrophiles améliore la réponse immunitaire et tue les cellules tumorales.
-Actuellement, il n'existe aucun traitement approuvé avec des bactéries génétiquement modifiées. Cependant, des recherches sont menées sur Listeria et Clostridium en tant que vecteurs pour transporter l'ARNi (qui supprime des gènes) pour le cancer colorectal[6].
-Des essais de phase I de la souche Clostridium appelée Clostridium novyi (C. novyi -NT) pour les patients atteints de tumeurs réfractaires au traitement ou de tumeurs qui ne répondent pas au traitement sont actuellement en cours[7].
+Actuellement, il n'existe aucun traitement approuvé avec des bactéries génétiquement modifiées. Cependant, des recherches sont menées sur Listeria et Clostridium en tant que vecteurs pour transporter l'ARNi (qui supprime des gènes) pour le cancer colorectal.
+Des essais de phase I de la souche Clostridium appelée Clostridium novyi (C. novyi -NT) pour les patients atteints de tumeurs réfractaires au traitement ou de tumeurs qui ne répondent pas au traitement sont actuellement en cours.
 </t>
         </is>
       </c>
